--- a/exports/Customer.xlsx
+++ b/exports/Customer.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -37,151 +37,250 @@
     <t>Items</t>
   </si>
   <si>
-    <t>"677b022e44b5150b704aa2be"</t>
+    <t>"681d1d7aeb296f17c07e34a8"</t>
   </si>
   <si>
     <t>invoice</t>
   </si>
   <si>
-    <t>"677b022d44b5150b704aa2b8"</t>
-  </si>
-  <si>
-    <t>Invoice created with total 1800 for customer Mohamed</t>
+    <t>"681d1d7aeb296f17c07e34a4"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000001 created with total 300 for customer Mohamed Al-Afandi</t>
   </si>
   <si>
     <t>debit</t>
   </si>
   <si>
-    <t>1/5/2025</t>
+    <t>5/8/2025</t>
+  </si>
+  <si>
+    <t>Product: 680c006c3cffd67ce7011a77, Qnt: 2, Price: 150</t>
+  </si>
+  <si>
+    <t>"681d1d7aeb296f17c07e34aa"</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>Discount of 10% applied to invoice #INV-000001</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>"677b022e44b5150b704aa2bf"</t>
+    <t>"681d1d7aeb296f17c07e34ab"</t>
   </si>
   <si>
     <t>payment</t>
   </si>
   <si>
-    <t>Payment of 100 for invoice 677b022d44b5150b704aa2b8</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>"677b02c644b5150b704aa2cf"</t>
-  </si>
-  <si>
-    <t>Payment of 1000 for invoice 677b022d44b5150b704aa2b8</t>
-  </si>
-  <si>
-    <t>"677b08bf44b5150b704aa2f3"</t>
-  </si>
-  <si>
-    <t>"677b08bb44b5150b704aa2ed"</t>
-  </si>
-  <si>
-    <t>Invoice created with total 600 for customer Mohamed</t>
-  </si>
-  <si>
-    <t>"677b08bf44b5150b704aa2f4"</t>
-  </si>
-  <si>
-    <t>Payment of 10 for invoice 677b08bb44b5150b704aa2ed</t>
-  </si>
-  <si>
-    <t>"677b0d4444b5150b704aa2ff"</t>
+    <t>Payment of 100 received for invoice #INV-000001</t>
+  </si>
+  <si>
+    <t>"681d27b5c308b80b3ba9aed6"</t>
+  </si>
+  <si>
+    <t>"681d27b5c308b80b3ba9aed4"</t>
+  </si>
+  <si>
+    <t>Payment of 170 for invoice 1</t>
+  </si>
+  <si>
+    <t>"681d4414836b2d42638332f1"</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>"677b0d4444b5150b704aa2fc"</t>
-  </si>
-  <si>
-    <t>Refund of 600 for returned quantity of 1 from invoice 677b022d44b5150b704aa2b8</t>
-  </si>
-  <si>
-    <t>"677c0ddff20bec54f7de86f3"</t>
-  </si>
-  <si>
-    <t>"677c0ddff20bec54f7de86ed"</t>
-  </si>
-  <si>
-    <t>Invoice created with total 1200 for customer Mohamed</t>
-  </si>
-  <si>
-    <t>1/6/2025</t>
-  </si>
-  <si>
-    <t>"677c0ddff20bec54f7de86f4"</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>Invoice created with discount 10% for customer Mohamed</t>
-  </si>
-  <si>
-    <t>"677c0ddff20bec54f7de86f5"</t>
-  </si>
-  <si>
-    <t>Payment of 750 for invoice 677c0ddff20bec54f7de86ed</t>
-  </si>
-  <si>
-    <t>"677c0ec435ab8949e8020365"</t>
-  </si>
-  <si>
-    <t>"677c0ec435ab8949e802035f"</t>
-  </si>
-  <si>
-    <t>"677c0ec435ab8949e8020366"</t>
-  </si>
-  <si>
-    <t>"677c0ec435ab8949e8020367"</t>
-  </si>
-  <si>
-    <t>Payment of 750 for invoice 677c0ec435ab8949e802035f</t>
-  </si>
-  <si>
-    <t>"677c1cdf31206333f5902d96"</t>
-  </si>
-  <si>
-    <t>"677c1cde31206333f5902d90"</t>
-  </si>
-  <si>
-    <t>Product: ram, Qnt: 2, Price: 600</t>
-  </si>
-  <si>
-    <t>"677c1cdf31206333f5902d98"</t>
-  </si>
-  <si>
-    <t>"677c1cdf31206333f5902d99"</t>
-  </si>
-  <si>
-    <t>Payment of 750 for invoice 677c1cde31206333f5902d90</t>
-  </si>
-  <si>
-    <t>"677c32ca31206333f5902db4"</t>
-  </si>
-  <si>
-    <t>"677c32c931206333f5902dad"</t>
-  </si>
-  <si>
-    <t>Invoice created with total 3600 for customer Mohamed</t>
-  </si>
-  <si>
-    <t>Product: ram, Qnt: 3, Price: 600 - Product: newgen, Qnt: 3, Price: 600</t>
-  </si>
-  <si>
-    <t>"677c32ca31206333f5902db7"</t>
-  </si>
-  <si>
-    <t>"677c32ca31206333f5902db8"</t>
-  </si>
-  <si>
-    <t>Payment of 750 for invoice 677c32c931206333f5902dad</t>
+    <t>"681d4414836b2d42638332f0"</t>
+  </si>
+  <si>
+    <t>Refund of 150 for return of 1 item(s) from invoice 681d1d7aeb296f17c07e34a4</t>
+  </si>
+  <si>
+    <t>"681fd62085cbd8c189e32bc1"</t>
+  </si>
+  <si>
+    <t>"681fd62085cbd8c189e32bbd"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000002 created with total 300 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>5/10/2025</t>
+  </si>
+  <si>
+    <t>"681fd62085cbd8c189e32bc3"</t>
+  </si>
+  <si>
+    <t>Discount of 10% applied to invoice #INV-000002</t>
+  </si>
+  <si>
+    <t>"681fd62085cbd8c189e32bc4"</t>
+  </si>
+  <si>
+    <t>Payment of 100 received for invoice #INV-000002</t>
+  </si>
+  <si>
+    <t>"681fd62c85cbd8c189e32bd4"</t>
+  </si>
+  <si>
+    <t>"681fd62b85cbd8c189e32bd0"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000003 created with total 150 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>Product: 680c006c3cffd67ce7011a77, Qnt: 1, Price: 150</t>
+  </si>
+  <si>
+    <t>"681fd62c85cbd8c189e32bd6"</t>
+  </si>
+  <si>
+    <t>Payment of 100 received for invoice #INV-000003</t>
+  </si>
+  <si>
+    <t>"6820d25ebc22c0a6ba123569"</t>
+  </si>
+  <si>
+    <t>"6820d25ebc22c0a6ba123565"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000004 created with total 300 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>5/11/2025</t>
+  </si>
+  <si>
+    <t>"6820d25ebc22c0a6ba12356b"</t>
+  </si>
+  <si>
+    <t>Discount of 10% applied to invoice #INV-000004</t>
+  </si>
+  <si>
+    <t>"6820d25ebc22c0a6ba12356c"</t>
+  </si>
+  <si>
+    <t>Payment of 100 received for invoice #INV-000004</t>
+  </si>
+  <si>
+    <t>"6820d472bc22c0a6ba1235bd"</t>
+  </si>
+  <si>
+    <t>"6820d472bc22c0a6ba1235b9"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000005 created with total 750 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>Product: 680c006c3cffd67ce7011a77, Qnt: 5, Price: 150</t>
+  </si>
+  <si>
+    <t>"6820d472bc22c0a6ba1235bf"</t>
+  </si>
+  <si>
+    <t>Discount of 1% applied to invoice #INV-000005</t>
+  </si>
+  <si>
+    <t>"6820d472bc22c0a6ba1235c0"</t>
+  </si>
+  <si>
+    <t>Payment of 99.94 received for invoice #INV-000005</t>
+  </si>
+  <si>
+    <t>"6820d5eabc22c0a6ba1235cf"</t>
+  </si>
+  <si>
+    <t>"6820d5e9bc22c0a6ba1235cb"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000006 created with total 150 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>"6820d5eabc22c0a6ba1235d1"</t>
+  </si>
+  <si>
+    <t>Payment of 22 received for invoice #INV-000006</t>
+  </si>
+  <si>
+    <t>"6820d720bc22c0a6ba1235e0"</t>
+  </si>
+  <si>
+    <t>"6820d720bc22c0a6ba1235dc"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000007 created with total 150 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>"6820d720bc22c0a6ba1235e2"</t>
+  </si>
+  <si>
+    <t>Payment of 100 received for invoice #INV-000007</t>
+  </si>
+  <si>
+    <t>"68210b254569dae46217a5f4"</t>
+  </si>
+  <si>
+    <t>"68210b254569dae46217a5f0"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000008 created with total 300 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>"68210b254569dae46217a5f6"</t>
+  </si>
+  <si>
+    <t>Discount of 10% applied to invoice #INV-000008</t>
+  </si>
+  <si>
+    <t>"68210b254569dae46217a5f7"</t>
+  </si>
+  <si>
+    <t>Payment of 100 received for invoice #INV-000008</t>
+  </si>
+  <si>
+    <t>"68210e004569dae46217a608"</t>
+  </si>
+  <si>
+    <t>"68210e004569dae46217a604"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000009 created with total 150 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>"68210e004569dae46217a60a"</t>
+  </si>
+  <si>
+    <t>Payment of 10 received for invoice #INV-000009</t>
+  </si>
+  <si>
+    <t>"68210e584569dae46217a619"</t>
+  </si>
+  <si>
+    <t>"68210e574569dae46217a615"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000010 created with total 150 for customer Mohamed Al-Afandi</t>
+  </si>
+  <si>
+    <t>"68210e584569dae46217a61b"</t>
+  </si>
+  <si>
+    <t>Payment of 10 received for invoice #INV-000010</t>
+  </si>
+  <si>
+    <t>"68210eb44569dae46217a62a"</t>
+  </si>
+  <si>
+    <t>"68210eb44569dae46217a626"</t>
+  </si>
+  <si>
+    <t>Invoice #INV-000011 created with total 150 for customer Mohamed Al-Afandi</t>
   </si>
   <si>
     <t>Total Debit</t>
@@ -590,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -640,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="5">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -666,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
@@ -678,24 +777,24 @@
         <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -704,82 +803,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5">
-        <v>10</v>
+        <v>-150</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5">
-        <v>-600</v>
+        <v>300</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>14</v>
@@ -787,129 +886,129 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="5">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="5">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" s="5">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>14</v>
@@ -917,208 +1016,468 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5">
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="5">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5">
-        <v>750</v>
+        <v>7.5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5">
-        <v>3600</v>
+        <v>99.94</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5">
+        <v>150</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5">
+        <v>300</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5">
-        <v>750</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="5">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>59</v>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="5">
-        <v>-6690</v>
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="5">
+        <v>150</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="5">
+        <v>150</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="5">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="5">
+        <v>150</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1039.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-1660.56</v>
       </c>
     </row>
   </sheetData>
